--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1764,7 +1764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1787,6 +1787,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -1830,7 +1844,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1907,7 +1921,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1919,30 +1933,34 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1995,15 +2013,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2011,6 +2033,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2027,11 +2053,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2051,6 +2077,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2099,11 +2129,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2207,8 +2237,8 @@
   </sheetPr>
   <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I79" activeCellId="0" sqref="I79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2217,7 +2247,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
@@ -2906,7 +2936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27"/>
       <c r="B44" s="20"/>
       <c r="C44" s="23"/>
@@ -2956,7 +2986,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="n">
+      <c r="A47" s="28" t="n">
         <v>14</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2977,7 +3007,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="n">
+      <c r="A48" s="29" t="n">
         <v>15</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -2990,7 +3020,7 @@
       <c r="E48" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="30" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="14" t="s">
@@ -3009,7 +3039,7 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="49.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30" t="n">
+      <c r="A50" s="31" t="n">
         <v>16</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -3030,10 +3060,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="n">
+      <c r="A51" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="15"/>
@@ -3043,18 +3073,18 @@
       <c r="E51" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="n">
+      <c r="A52" s="31" t="n">
         <v>18</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="15"/>
@@ -3072,10 +3102,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="n">
+      <c r="A53" s="31" t="n">
         <v>19</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="15"/>
@@ -3104,7 +3134,7 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="n">
+      <c r="A55" s="35" t="n">
         <v>20</v>
       </c>
       <c r="B55" s="17" t="s">
@@ -3117,7 +3147,7 @@
       <c r="E55" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="36" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="23" t="s">
@@ -3125,18 +3155,18 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37" t="n">
+      <c r="A57" s="38" t="n">
         <v>21</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -3157,11 +3187,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F58" s="8" t="s">
@@ -3172,23 +3202,23 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="n">
+      <c r="A59" s="29" t="n">
         <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="38"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="41" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3206,10 +3236,10 @@
       <c r="E60" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3219,10 +3249,10 @@
       <c r="C61" s="18"/>
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="41" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3232,10 +3262,10 @@
       <c r="C62" s="18"/>
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3253,7 +3283,7 @@
       <c r="E63" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="40" t="s">
         <v>128</v>
       </c>
       <c r="G63" s="26" t="s">
@@ -3268,10 +3298,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="25"/>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="33" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3286,7 +3316,7 @@
       <c r="F65" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="33" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3313,16 +3343,16 @@
         <v>142</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="40" t="s">
+      <c r="G67" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3332,10 +3362,10 @@
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="25"/>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="32" t="s">
+      <c r="G68" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3343,7 +3373,7 @@
       <c r="A69" s="22"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
         <v>145</v>
@@ -3364,14 +3394,14 @@
       <c r="G70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42" t="n">
+      <c r="A71" s="43" t="n">
         <v>26</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="41" t="s">
+      <c r="C71" s="39"/>
+      <c r="D71" s="44" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="25" t="s">
@@ -3385,49 +3415,49 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="33.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="43" t="n">
+      <c r="A72" s="45" t="n">
         <v>27</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="46" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="G72" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="43"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="13"/>
       <c r="C73" s="18"/>
-      <c r="D73" s="44"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="47" t="s">
         <v>152</v>
       </c>
       <c r="F74" s="13" t="s">
@@ -3438,125 +3468,125 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="43" t="n">
+      <c r="A75" s="45" t="n">
         <v>28</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="43"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="13"/>
       <c r="C76" s="18"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="45" t="s">
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G76" s="46" t="s">
+      <c r="G76" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="43"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="13"/>
       <c r="C77" s="18"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="45" t="s">
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="49" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="43"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="13"/>
       <c r="C78" s="18"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="46" t="s">
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="G78" s="46" t="s">
+      <c r="G78" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="43"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="13"/>
       <c r="C79" s="18"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="46" t="s">
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="43"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="13"/>
       <c r="C80" s="18"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="47" t="s">
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="G80" s="45" t="s">
+      <c r="G80" s="48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="43"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="13"/>
       <c r="C81" s="18"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="46" t="s">
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G81" s="46" t="s">
+      <c r="G81" s="49" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="48" t="n">
+      <c r="A82" s="51" t="n">
         <v>29</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C82" s="18"/>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="52" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G82" s="32" t="s">
+      <c r="G82" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="48"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="13"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="33" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3574,10 +3604,10 @@
       <c r="E84" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="33" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3587,109 +3617,109 @@
       <c r="C85" s="18"/>
       <c r="D85" s="24"/>
       <c r="E85" s="25"/>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="43" t="n">
+      <c r="A86" s="45" t="n">
         <v>31</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>179</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="43"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="13"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="45" t="s">
+      <c r="D87" s="42"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G87" s="46" t="s">
+      <c r="G87" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="43"/>
+      <c r="A88" s="45"/>
       <c r="B88" s="13"/>
       <c r="C88" s="18"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="45" t="s">
+      <c r="D88" s="42"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G88" s="46" t="s">
+      <c r="G88" s="49" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="43"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="13"/>
       <c r="C89" s="18"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="46" t="s">
+      <c r="D89" s="42"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G89" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="43"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="13"/>
       <c r="C90" s="18"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="46" t="s">
+      <c r="D90" s="42"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="49" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="43"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="13"/>
       <c r="C91" s="18"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="45" t="s">
+      <c r="D91" s="42"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="G91" s="45" t="s">
+      <c r="G91" s="48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="43"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="13"/>
       <c r="C92" s="18"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="32" t="s">
+      <c r="D92" s="42"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="33" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3697,7 +3727,7 @@
       <c r="A93" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="13" t="s">
         <v>186</v>
       </c>
       <c r="C93" s="18"/>
@@ -3707,16 +3737,16 @@
       <c r="E93" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="32" t="s">
+      <c r="F93" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="G93" s="32" t="s">
+      <c r="G93" s="33" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="16"/>
-      <c r="B94" s="50"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="18"/>
       <c r="D94" s="24" t="s">
         <v>10</v>
@@ -3731,16 +3761,16 @@
     </row>
     <row r="95" customFormat="false" ht="30.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="16"/>
-      <c r="B95" s="50"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="18"/>
       <c r="D95" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="20"/>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3748,33 +3778,33 @@
       <c r="A96" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="13" t="s">
         <v>193</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="51" t="s">
+      <c r="E96" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F96" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="G96" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="31.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="16"/>
-      <c r="B97" s="50"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="45" t="s">
+      <c r="E97" s="54"/>
+      <c r="F97" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G97" s="46" t="s">
+      <c r="G97" s="49" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3782,7 +3812,7 @@
       <c r="A98" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="13" t="s">
         <v>196</v>
       </c>
       <c r="C98" s="18"/>
@@ -3792,81 +3822,81 @@
       <c r="E98" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G98" s="32" t="s">
+      <c r="G98" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="16"/>
-      <c r="B99" s="50"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="20"/>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G99" s="46" t="s">
+      <c r="G99" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="16"/>
-      <c r="B100" s="50"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="20"/>
-      <c r="F100" s="45" t="s">
+      <c r="F100" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="49" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="16"/>
-      <c r="B101" s="50"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="20"/>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="16"/>
-      <c r="B102" s="50"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="46" t="s">
+      <c r="F102" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G102" s="46" t="s">
+      <c r="G102" s="49" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="16"/>
-      <c r="B103" s="50"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="45" t="s">
+      <c r="F103" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="G103" s="45" t="s">
+      <c r="G103" s="48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="16"/>
-      <c r="B104" s="50"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
       <c r="E104" s="20"/>
@@ -3879,11 +3909,11 @@
     </row>
     <row r="105" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="16"/>
-      <c r="B105" s="50"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
       <c r="E105" s="20"/>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="39" t="s">
         <v>203</v>
       </c>
       <c r="G105" s="14" t="s">
@@ -3901,13 +3931,13 @@
       <c r="D106" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="49" t="s">
+      <c r="E106" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F106" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="33" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3916,11 +3946,11 @@
       <c r="B107" s="13"/>
       <c r="C107" s="18"/>
       <c r="D107" s="24"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="45" t="s">
+      <c r="E107" s="53"/>
+      <c r="F107" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G107" s="46" t="s">
+      <c r="G107" s="49" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3929,11 +3959,11 @@
       <c r="B108" s="13"/>
       <c r="C108" s="18"/>
       <c r="D108" s="24"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="45" t="s">
+      <c r="E108" s="53"/>
+      <c r="F108" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G108" s="46" t="s">
+      <c r="G108" s="49" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3942,11 +3972,11 @@
       <c r="B109" s="13"/>
       <c r="C109" s="18"/>
       <c r="D109" s="24"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="46" t="s">
+      <c r="E109" s="53"/>
+      <c r="F109" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="G109" s="46" t="s">
+      <c r="G109" s="49" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3955,11 +3985,11 @@
       <c r="B110" s="13"/>
       <c r="C110" s="18"/>
       <c r="D110" s="24"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="46" t="s">
+      <c r="E110" s="53"/>
+      <c r="F110" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G110" s="46" t="s">
+      <c r="G110" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3968,11 +3998,11 @@
       <c r="B111" s="13"/>
       <c r="C111" s="18"/>
       <c r="D111" s="24"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="45" t="s">
+      <c r="E111" s="53"/>
+      <c r="F111" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="45" t="s">
+      <c r="G111" s="48" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3981,7 +4011,7 @@
       <c r="B112" s="13"/>
       <c r="C112" s="18"/>
       <c r="D112" s="24"/>
-      <c r="E112" s="49"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="12" t="s">
         <v>201</v>
       </c>
@@ -3994,7 +4024,7 @@
       <c r="B113" s="13"/>
       <c r="C113" s="18"/>
       <c r="D113" s="24"/>
-      <c r="E113" s="49"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="12" t="s">
         <v>207</v>
       </c>
@@ -4007,7 +4037,7 @@
       <c r="B114" s="13"/>
       <c r="C114" s="18"/>
       <c r="D114" s="24"/>
-      <c r="E114" s="49"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="12" t="s">
         <v>209</v>
       </c>
@@ -4020,7 +4050,7 @@
       <c r="B115" s="13"/>
       <c r="C115" s="18"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="49"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="12" t="s">
         <v>211</v>
       </c>
@@ -4033,7 +4063,7 @@
       <c r="B116" s="13"/>
       <c r="C116" s="18"/>
       <c r="D116" s="24"/>
-      <c r="E116" s="49"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="12" t="s">
         <v>213</v>
       </c>
@@ -4046,7 +4076,7 @@
       <c r="B117" s="13"/>
       <c r="C117" s="18"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="49"/>
+      <c r="E117" s="53"/>
       <c r="F117" s="12" t="s">
         <v>215</v>
       </c>
@@ -4059,7 +4089,7 @@
       <c r="B118" s="13"/>
       <c r="C118" s="18"/>
       <c r="D118" s="24"/>
-      <c r="E118" s="49"/>
+      <c r="E118" s="53"/>
       <c r="F118" s="12" t="s">
         <v>217</v>
       </c>
@@ -4157,7 +4187,7 @@
       <c r="A125" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C125" s="18"/>
@@ -4176,50 +4206,50 @@
     </row>
     <row r="126" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="16"/>
-      <c r="B126" s="50"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="18"/>
       <c r="D126" s="24"/>
       <c r="E126" s="20"/>
-      <c r="F126" s="52" t="s">
+      <c r="F126" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="G126" s="53" t="s">
+      <c r="G126" s="56" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="39.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="16"/>
-      <c r="B127" s="50"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="18"/>
       <c r="D127" s="24"/>
       <c r="E127" s="20"/>
-      <c r="F127" s="52" t="s">
+      <c r="F127" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="G127" s="52" t="s">
+      <c r="G127" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="16"/>
-      <c r="B128" s="50"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="18"/>
       <c r="D128" s="24"/>
       <c r="E128" s="20"/>
-      <c r="F128" s="52" t="s">
+      <c r="F128" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="G128" s="52" t="s">
+      <c r="G128" s="55" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="40.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="16"/>
-      <c r="B129" s="50"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="18"/>
       <c r="D129" s="24"/>
       <c r="E129" s="20"/>
-      <c r="F129" s="38" t="s">
+      <c r="F129" s="39" t="s">
         <v>243</v>
       </c>
       <c r="G129" s="14" t="s">
@@ -4228,11 +4258,11 @@
     </row>
     <row r="130" customFormat="false" ht="39.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="16"/>
-      <c r="B130" s="50"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="18"/>
       <c r="D130" s="24"/>
       <c r="E130" s="20"/>
-      <c r="F130" s="38" t="s">
+      <c r="F130" s="39" t="s">
         <v>245</v>
       </c>
       <c r="G130" s="14" t="s">
@@ -4241,7 +4271,7 @@
     </row>
     <row r="131" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="16"/>
-      <c r="B131" s="50"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="18"/>
       <c r="D131" s="24"/>
       <c r="E131" s="20"/>
@@ -4256,94 +4286,94 @@
       <c r="A132" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="13" t="s">
         <v>249</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="49" t="s">
+      <c r="E132" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="F132" s="32" t="s">
+      <c r="F132" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G132" s="32" t="s">
+      <c r="G132" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="16"/>
-      <c r="B133" s="50"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="45" t="s">
+      <c r="E133" s="53"/>
+      <c r="F133" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G133" s="46" t="s">
+      <c r="G133" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="16"/>
-      <c r="B134" s="50"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="45" t="s">
+      <c r="E134" s="53"/>
+      <c r="F134" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="G134" s="46" t="s">
+      <c r="G134" s="49" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="16"/>
-      <c r="B135" s="50"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="46" t="s">
+      <c r="E135" s="53"/>
+      <c r="F135" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="G135" s="46" t="s">
+      <c r="G135" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="16"/>
-      <c r="B136" s="50"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="46" t="s">
+      <c r="E136" s="53"/>
+      <c r="F136" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G136" s="46" t="s">
+      <c r="G136" s="49" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="16"/>
-      <c r="B137" s="50"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="45" t="s">
+      <c r="E137" s="53"/>
+      <c r="F137" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="G137" s="45" t="s">
+      <c r="G137" s="48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="16"/>
-      <c r="B138" s="50"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
-      <c r="E138" s="49"/>
+      <c r="E138" s="53"/>
       <c r="F138" s="12" t="s">
         <v>201</v>
       </c>
@@ -4353,27 +4383,27 @@
     </row>
     <row r="139" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16"/>
-      <c r="B139" s="50"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="54" t="s">
+      <c r="E139" s="53"/>
+      <c r="F139" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="G139" s="54" t="s">
+      <c r="G139" s="57" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="16"/>
-      <c r="B140" s="50"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="54" t="s">
+      <c r="E140" s="53"/>
+      <c r="F140" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="G140" s="54" t="s">
+      <c r="G140" s="57" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4388,13 +4418,13 @@
       <c r="D141" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="49" t="s">
+      <c r="E141" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="F141" s="55" t="s">
+      <c r="F141" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="G141" s="55" t="s">
+      <c r="G141" s="59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4404,10 +4434,10 @@
       <c r="C142" s="18"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="56" t="s">
+      <c r="F142" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="G142" s="55" t="s">
+      <c r="G142" s="59" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4417,10 +4447,10 @@
       <c r="C143" s="18"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
-      <c r="F143" s="55" t="s">
+      <c r="F143" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="G143" s="55" t="s">
+      <c r="G143" s="59" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4435,13 +4465,13 @@
       <c r="D144" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="49" t="s">
+      <c r="E144" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="F144" s="55" t="s">
+      <c r="F144" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G144" s="55" t="s">
+      <c r="G144" s="59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4450,11 +4480,11 @@
       <c r="B145" s="13"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="56" t="s">
+      <c r="E145" s="53"/>
+      <c r="F145" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="G145" s="55" t="s">
+      <c r="G145" s="59" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4463,11 +4493,11 @@
       <c r="B146" s="13"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="55" t="s">
+      <c r="E146" s="53"/>
+      <c r="F146" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="G146" s="55" t="s">
+      <c r="G146" s="59" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4486,122 +4516,122 @@
       <c r="A148" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="B148" s="61" t="s">
         <v>269</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="51" t="s">
+      <c r="E148" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="F148" s="58" t="s">
+      <c r="F148" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="G148" s="58" t="s">
+      <c r="G148" s="62" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="16"/>
-      <c r="B149" s="57"/>
+      <c r="B149" s="61"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="58" t="s">
+      <c r="E149" s="54"/>
+      <c r="F149" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="G149" s="58" t="s">
+      <c r="G149" s="62" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="16"/>
-      <c r="B150" s="57"/>
+      <c r="B150" s="61"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="58" t="s">
+      <c r="E150" s="54"/>
+      <c r="F150" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="G150" s="58" t="s">
+      <c r="G150" s="62" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="16"/>
-      <c r="B151" s="57"/>
+      <c r="B151" s="61"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="58" t="s">
+      <c r="E151" s="54"/>
+      <c r="F151" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="G151" s="58" t="s">
+      <c r="G151" s="62" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="30" t="n">
+      <c r="A152" s="31" t="n">
         <v>42</v>
       </c>
-      <c r="B152" s="59" t="s">
+      <c r="B152" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="C152" s="38"/>
+      <c r="C152" s="39"/>
       <c r="D152" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E152" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="F152" s="59" t="s">
+      <c r="F152" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="G152" s="59" t="s">
+      <c r="G152" s="63" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="30" t="n">
+      <c r="A153" s="31" t="n">
         <v>43</v>
       </c>
-      <c r="B153" s="59" t="s">
+      <c r="B153" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="C153" s="38"/>
+      <c r="C153" s="39"/>
       <c r="D153" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="51" t="s">
+      <c r="E153" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="F153" s="59" t="s">
+      <c r="F153" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="G153" s="59" t="s">
+      <c r="G153" s="63" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="30" t="n">
+      <c r="A154" s="31" t="n">
         <v>44</v>
       </c>
-      <c r="B154" s="60" t="s">
+      <c r="B154" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C154" s="38"/>
+      <c r="C154" s="39"/>
       <c r="D154" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E154" s="51" t="s">
+      <c r="E154" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="F154" s="59" t="s">
+      <c r="F154" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="G154" s="59" t="s">
+      <c r="G154" s="63" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4617,29 +4647,29 @@
       <c r="G155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="30" t="n">
+      <c r="A156" s="31" t="n">
         <v>45</v>
       </c>
-      <c r="B156" s="61" t="s">
+      <c r="B156" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="C156" s="38"/>
+      <c r="C156" s="39"/>
       <c r="D156" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F156" s="62" t="s">
+      <c r="F156" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="G156" s="62" t="s">
+      <c r="G156" s="66" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="30"/>
-      <c r="B157" s="63" t="s">
+      <c r="A157" s="31"/>
+      <c r="B157" s="67" t="s">
         <v>294</v>
       </c>
       <c r="C157" s="18"/>
@@ -4649,51 +4679,51 @@
       <c r="E157" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="F157" s="59" t="s">
+      <c r="F157" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="G157" s="59" t="s">
+      <c r="G157" s="63" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="30" t="n">
+      <c r="A158" s="31" t="n">
         <v>46</v>
       </c>
-      <c r="B158" s="63"/>
+      <c r="B158" s="67"/>
       <c r="C158" s="18"/>
-      <c r="D158" s="38"/>
+      <c r="D158" s="39"/>
       <c r="E158" s="20"/>
-      <c r="F158" s="29" t="s">
+      <c r="F158" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="G158" s="59" t="s">
+      <c r="G158" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="49.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="30" t="n">
+      <c r="A159" s="31" t="n">
         <v>47</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="C159" s="38"/>
+      <c r="C159" s="39"/>
       <c r="D159" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="65" t="s">
+      <c r="E159" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="F159" s="59" t="s">
+      <c r="F159" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="G159" s="59" t="s">
+      <c r="G159" s="63" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="30"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -4702,34 +4732,34 @@
       <c r="G160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="30"/>
-      <c r="B161" s="66"/>
-      <c r="C161" s="38"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="38"/>
-      <c r="F161" s="38"/>
-      <c r="G161" s="38"/>
+      <c r="A161" s="31"/>
+      <c r="B161" s="70"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="30"/>
-      <c r="B162" s="66"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="38"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="38"/>
+      <c r="A162" s="31"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="39"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="30"/>
-      <c r="B163" s="64"/>
-      <c r="C163" s="38"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="68"/>
+      <c r="A163" s="31"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="72"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="30"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -4738,25 +4768,25 @@
       <c r="G164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="30"/>
-      <c r="B165" s="64"/>
-      <c r="C165" s="38"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
+      <c r="A165" s="31"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="39"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="30"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="38"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="30"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -4765,43 +4795,43 @@
       <c r="G167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="30"/>
-      <c r="B168" s="69"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="38"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="73"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="30"/>
-      <c r="B169" s="64"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
+      <c r="A169" s="31"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="39"/>
+      <c r="G169" s="39"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="30"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="38"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
+      <c r="A170" s="31"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="30"/>
-      <c r="B171" s="69"/>
-      <c r="C171" s="38"/>
-      <c r="D171" s="38"/>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
+      <c r="A171" s="31"/>
+      <c r="B171" s="73"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="30"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -4810,43 +4840,43 @@
       <c r="G172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="30"/>
-      <c r="B173" s="69"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="38"/>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="73"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="39"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="30"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="38"/>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="39"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="30"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="38"/>
-      <c r="D175" s="38"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
+      <c r="A175" s="31"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="30"/>
-      <c r="B176" s="64"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
+      <c r="A176" s="31"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="39"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="30"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -4855,949 +4885,949 @@
       <c r="G177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="30"/>
-      <c r="B178" s="70"/>
-      <c r="C178" s="38"/>
-      <c r="D178" s="38"/>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="38"/>
+      <c r="A178" s="31"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39"/>
+      <c r="G178" s="39"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="30"/>
-      <c r="B179" s="71"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
-      <c r="E179" s="38"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="38"/>
+      <c r="A179" s="31"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="30"/>
-      <c r="B180" s="71"/>
-      <c r="C180" s="38"/>
-      <c r="D180" s="38"/>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="38"/>
+      <c r="A180" s="31"/>
+      <c r="B180" s="75"/>
+      <c r="C180" s="39"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="39"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="30"/>
-      <c r="B181" s="71"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="38"/>
-      <c r="E181" s="38"/>
-      <c r="F181" s="38"/>
-      <c r="G181" s="38"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="75"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="30"/>
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
-      <c r="E182" s="38"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="38"/>
+      <c r="A182" s="31"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="39"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="30"/>
-      <c r="B183" s="38"/>
-      <c r="C183" s="38"/>
-      <c r="D183" s="38"/>
-      <c r="E183" s="38"/>
-      <c r="F183" s="38"/>
-      <c r="G183" s="38"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="39"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="30"/>
-      <c r="B184" s="38"/>
-      <c r="C184" s="38"/>
-      <c r="D184" s="38"/>
-      <c r="E184" s="38"/>
-      <c r="F184" s="38"/>
-      <c r="G184" s="38"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="30"/>
-      <c r="B185" s="38"/>
-      <c r="C185" s="38"/>
-      <c r="D185" s="38"/>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="38"/>
+      <c r="A185" s="31"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="30"/>
-      <c r="B186" s="38"/>
-      <c r="C186" s="38"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
+      <c r="A186" s="31"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="30"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="38"/>
-      <c r="E187" s="38"/>
-      <c r="F187" s="38"/>
-      <c r="G187" s="38"/>
+      <c r="A187" s="31"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="30"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="38"/>
-      <c r="D188" s="38"/>
-      <c r="E188" s="38"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
+      <c r="A188" s="31"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="39"/>
+      <c r="G188" s="39"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="30"/>
-      <c r="B189" s="38"/>
-      <c r="C189" s="38"/>
-      <c r="D189" s="38"/>
-      <c r="E189" s="38"/>
-      <c r="F189" s="38"/>
-      <c r="G189" s="38"/>
+      <c r="A189" s="31"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="39"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
+      <c r="F189" s="39"/>
+      <c r="G189" s="39"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="30"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="38"/>
-      <c r="D190" s="38"/>
-      <c r="E190" s="38"/>
-      <c r="F190" s="38"/>
-      <c r="G190" s="38"/>
+      <c r="A190" s="31"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="39"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="30"/>
-      <c r="B191" s="38"/>
-      <c r="C191" s="38"/>
-      <c r="D191" s="38"/>
-      <c r="E191" s="38"/>
-      <c r="F191" s="38"/>
-      <c r="G191" s="38"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="39"/>
+      <c r="G191" s="39"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="30"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="38"/>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="38"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="39"/>
+      <c r="G192" s="39"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="30"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="38"/>
-      <c r="D193" s="38"/>
-      <c r="E193" s="38"/>
-      <c r="F193" s="38"/>
-      <c r="G193" s="38"/>
+      <c r="A193" s="31"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="39"/>
+      <c r="G193" s="39"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="30"/>
-      <c r="B194" s="38"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="38"/>
+      <c r="A194" s="31"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="39"/>
+      <c r="G194" s="39"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="72"/>
-      <c r="B195" s="73"/>
-      <c r="C195" s="73"/>
-      <c r="D195" s="73"/>
-      <c r="E195" s="73"/>
-      <c r="F195" s="73"/>
-      <c r="G195" s="73"/>
+      <c r="A195" s="76"/>
+      <c r="B195" s="77"/>
+      <c r="C195" s="77"/>
+      <c r="D195" s="77"/>
+      <c r="E195" s="77"/>
+      <c r="F195" s="77"/>
+      <c r="G195" s="77"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="72"/>
-      <c r="B196" s="73"/>
-      <c r="C196" s="73"/>
-      <c r="D196" s="73"/>
-      <c r="E196" s="73"/>
-      <c r="F196" s="73"/>
-      <c r="G196" s="73"/>
+      <c r="A196" s="76"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="77"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="77"/>
+      <c r="F196" s="77"/>
+      <c r="G196" s="77"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="72"/>
-      <c r="B197" s="73"/>
-      <c r="C197" s="73"/>
-      <c r="D197" s="73"/>
-      <c r="E197" s="73"/>
-      <c r="F197" s="73"/>
-      <c r="G197" s="73"/>
+      <c r="A197" s="76"/>
+      <c r="B197" s="77"/>
+      <c r="C197" s="77"/>
+      <c r="D197" s="77"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="77"/>
+      <c r="G197" s="77"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="72"/>
-      <c r="B198" s="73"/>
-      <c r="C198" s="73"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="73"/>
-      <c r="F198" s="73"/>
-      <c r="G198" s="73"/>
+      <c r="A198" s="76"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="77"/>
+      <c r="E198" s="77"/>
+      <c r="F198" s="77"/>
+      <c r="G198" s="77"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="72"/>
-      <c r="B199" s="73"/>
-      <c r="C199" s="73"/>
-      <c r="D199" s="73"/>
-      <c r="E199" s="73"/>
-      <c r="F199" s="73"/>
-      <c r="G199" s="73"/>
+      <c r="A199" s="76"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="77"/>
+      <c r="E199" s="77"/>
+      <c r="F199" s="77"/>
+      <c r="G199" s="77"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="72"/>
-      <c r="B200" s="73"/>
-      <c r="C200" s="73"/>
-      <c r="D200" s="73"/>
-      <c r="E200" s="73"/>
-      <c r="F200" s="73"/>
-      <c r="G200" s="73"/>
+      <c r="A200" s="76"/>
+      <c r="B200" s="77"/>
+      <c r="C200" s="77"/>
+      <c r="D200" s="77"/>
+      <c r="E200" s="77"/>
+      <c r="F200" s="77"/>
+      <c r="G200" s="77"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="72"/>
-      <c r="B201" s="73"/>
-      <c r="C201" s="73"/>
-      <c r="D201" s="73"/>
-      <c r="E201" s="73"/>
-      <c r="F201" s="73"/>
-      <c r="G201" s="73"/>
+      <c r="A201" s="76"/>
+      <c r="B201" s="77"/>
+      <c r="C201" s="77"/>
+      <c r="D201" s="77"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="77"/>
+      <c r="G201" s="77"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="72"/>
-      <c r="B202" s="73"/>
-      <c r="C202" s="73"/>
-      <c r="D202" s="73"/>
-      <c r="E202" s="73"/>
-      <c r="F202" s="73"/>
-      <c r="G202" s="73"/>
+      <c r="A202" s="76"/>
+      <c r="B202" s="77"/>
+      <c r="C202" s="77"/>
+      <c r="D202" s="77"/>
+      <c r="E202" s="77"/>
+      <c r="F202" s="77"/>
+      <c r="G202" s="77"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="72"/>
-      <c r="B203" s="73"/>
-      <c r="C203" s="73"/>
-      <c r="D203" s="73"/>
-      <c r="E203" s="73"/>
-      <c r="F203" s="73"/>
-      <c r="G203" s="73"/>
+      <c r="A203" s="76"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="72"/>
-      <c r="B204" s="73"/>
-      <c r="C204" s="73"/>
-      <c r="D204" s="73"/>
-      <c r="E204" s="73"/>
-      <c r="F204" s="73"/>
-      <c r="G204" s="73"/>
+      <c r="A204" s="76"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="77"/>
+      <c r="D204" s="77"/>
+      <c r="E204" s="77"/>
+      <c r="F204" s="77"/>
+      <c r="G204" s="77"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="72"/>
-      <c r="B205" s="73"/>
-      <c r="C205" s="73"/>
-      <c r="D205" s="73"/>
-      <c r="E205" s="73"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="73"/>
+      <c r="A205" s="76"/>
+      <c r="B205" s="77"/>
+      <c r="C205" s="77"/>
+      <c r="D205" s="77"/>
+      <c r="E205" s="77"/>
+      <c r="F205" s="77"/>
+      <c r="G205" s="77"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="72"/>
-      <c r="B206" s="73"/>
-      <c r="C206" s="73"/>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
+      <c r="A206" s="76"/>
+      <c r="B206" s="77"/>
+      <c r="C206" s="77"/>
+      <c r="D206" s="77"/>
+      <c r="E206" s="77"/>
+      <c r="F206" s="77"/>
+      <c r="G206" s="77"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="72"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="73"/>
-      <c r="D207" s="73"/>
-      <c r="E207" s="73"/>
-      <c r="F207" s="73"/>
-      <c r="G207" s="73"/>
+      <c r="A207" s="76"/>
+      <c r="B207" s="77"/>
+      <c r="C207" s="77"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="77"/>
+      <c r="F207" s="77"/>
+      <c r="G207" s="77"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="72"/>
-      <c r="B208" s="73"/>
-      <c r="C208" s="73"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
-      <c r="F208" s="73"/>
-      <c r="G208" s="73"/>
+      <c r="A208" s="76"/>
+      <c r="B208" s="77"/>
+      <c r="C208" s="77"/>
+      <c r="D208" s="77"/>
+      <c r="E208" s="77"/>
+      <c r="F208" s="77"/>
+      <c r="G208" s="77"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="72"/>
-      <c r="B209" s="73"/>
-      <c r="C209" s="73"/>
-      <c r="D209" s="73"/>
-      <c r="E209" s="73"/>
-      <c r="F209" s="73"/>
-      <c r="G209" s="73"/>
+      <c r="A209" s="76"/>
+      <c r="B209" s="77"/>
+      <c r="C209" s="77"/>
+      <c r="D209" s="77"/>
+      <c r="E209" s="77"/>
+      <c r="F209" s="77"/>
+      <c r="G209" s="77"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="72"/>
-      <c r="B210" s="73"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="73"/>
-      <c r="G210" s="73"/>
+      <c r="A210" s="76"/>
+      <c r="B210" s="77"/>
+      <c r="C210" s="77"/>
+      <c r="D210" s="77"/>
+      <c r="E210" s="77"/>
+      <c r="F210" s="77"/>
+      <c r="G210" s="77"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="72"/>
-      <c r="B211" s="73"/>
-      <c r="C211" s="73"/>
-      <c r="D211" s="73"/>
-      <c r="E211" s="73"/>
-      <c r="F211" s="73"/>
-      <c r="G211" s="73"/>
+      <c r="A211" s="76"/>
+      <c r="B211" s="77"/>
+      <c r="C211" s="77"/>
+      <c r="D211" s="77"/>
+      <c r="E211" s="77"/>
+      <c r="F211" s="77"/>
+      <c r="G211" s="77"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="72"/>
-      <c r="B212" s="73"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="73"/>
+      <c r="A212" s="76"/>
+      <c r="B212" s="77"/>
+      <c r="C212" s="77"/>
+      <c r="D212" s="77"/>
+      <c r="E212" s="77"/>
+      <c r="F212" s="77"/>
+      <c r="G212" s="77"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="72"/>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
-      <c r="F213" s="73"/>
-      <c r="G213" s="73"/>
+      <c r="A213" s="76"/>
+      <c r="B213" s="77"/>
+      <c r="C213" s="77"/>
+      <c r="D213" s="77"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="77"/>
+      <c r="G213" s="77"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="72"/>
-      <c r="B214" s="73"/>
-      <c r="C214" s="73"/>
-      <c r="D214" s="73"/>
-      <c r="E214" s="73"/>
-      <c r="F214" s="73"/>
-      <c r="G214" s="73"/>
+      <c r="A214" s="76"/>
+      <c r="B214" s="77"/>
+      <c r="C214" s="77"/>
+      <c r="D214" s="77"/>
+      <c r="E214" s="77"/>
+      <c r="F214" s="77"/>
+      <c r="G214" s="77"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="72"/>
-      <c r="B215" s="73"/>
-      <c r="C215" s="73"/>
-      <c r="D215" s="73"/>
-      <c r="E215" s="73"/>
-      <c r="F215" s="73"/>
-      <c r="G215" s="73"/>
+      <c r="A215" s="76"/>
+      <c r="B215" s="77"/>
+      <c r="C215" s="77"/>
+      <c r="D215" s="77"/>
+      <c r="E215" s="77"/>
+      <c r="F215" s="77"/>
+      <c r="G215" s="77"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="72"/>
-      <c r="B216" s="73"/>
-      <c r="C216" s="73"/>
-      <c r="D216" s="73"/>
-      <c r="E216" s="73"/>
-      <c r="F216" s="73"/>
-      <c r="G216" s="73"/>
+      <c r="A216" s="76"/>
+      <c r="B216" s="77"/>
+      <c r="C216" s="77"/>
+      <c r="D216" s="77"/>
+      <c r="E216" s="77"/>
+      <c r="F216" s="77"/>
+      <c r="G216" s="77"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="72"/>
-      <c r="B217" s="73"/>
-      <c r="C217" s="73"/>
-      <c r="D217" s="73"/>
-      <c r="E217" s="73"/>
-      <c r="F217" s="73"/>
-      <c r="G217" s="73"/>
+      <c r="A217" s="76"/>
+      <c r="B217" s="77"/>
+      <c r="C217" s="77"/>
+      <c r="D217" s="77"/>
+      <c r="E217" s="77"/>
+      <c r="F217" s="77"/>
+      <c r="G217" s="77"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="72"/>
-      <c r="B218" s="73"/>
-      <c r="C218" s="73"/>
-      <c r="D218" s="73"/>
-      <c r="E218" s="73"/>
-      <c r="F218" s="73"/>
-      <c r="G218" s="73"/>
+      <c r="A218" s="76"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="77"/>
+      <c r="D218" s="77"/>
+      <c r="E218" s="77"/>
+      <c r="F218" s="77"/>
+      <c r="G218" s="77"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="72"/>
-      <c r="B219" s="73"/>
-      <c r="C219" s="73"/>
-      <c r="D219" s="73"/>
-      <c r="E219" s="73"/>
-      <c r="F219" s="73"/>
-      <c r="G219" s="73"/>
+      <c r="A219" s="76"/>
+      <c r="B219" s="77"/>
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="77"/>
+      <c r="F219" s="77"/>
+      <c r="G219" s="77"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="72"/>
-      <c r="B220" s="73"/>
-      <c r="C220" s="73"/>
-      <c r="D220" s="73"/>
-      <c r="E220" s="73"/>
-      <c r="F220" s="73"/>
-      <c r="G220" s="73"/>
+      <c r="A220" s="76"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="77"/>
+      <c r="G220" s="77"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="72"/>
-      <c r="B221" s="73"/>
-      <c r="C221" s="73"/>
-      <c r="D221" s="73"/>
-      <c r="E221" s="73"/>
-      <c r="F221" s="73"/>
-      <c r="G221" s="73"/>
+      <c r="A221" s="76"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="77"/>
+      <c r="D221" s="77"/>
+      <c r="E221" s="77"/>
+      <c r="F221" s="77"/>
+      <c r="G221" s="77"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="72"/>
-      <c r="B222" s="73"/>
-      <c r="C222" s="73"/>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="73"/>
-      <c r="G222" s="73"/>
+      <c r="A222" s="76"/>
+      <c r="B222" s="77"/>
+      <c r="C222" s="77"/>
+      <c r="D222" s="77"/>
+      <c r="E222" s="77"/>
+      <c r="F222" s="77"/>
+      <c r="G222" s="77"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="72"/>
-      <c r="B223" s="73"/>
-      <c r="C223" s="73"/>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
+      <c r="A223" s="76"/>
+      <c r="B223" s="77"/>
+      <c r="C223" s="77"/>
+      <c r="D223" s="77"/>
+      <c r="E223" s="77"/>
+      <c r="F223" s="77"/>
+      <c r="G223" s="77"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="72"/>
-      <c r="B224" s="73"/>
-      <c r="C224" s="73"/>
-      <c r="D224" s="73"/>
-      <c r="E224" s="73"/>
-      <c r="F224" s="73"/>
-      <c r="G224" s="73"/>
+      <c r="A224" s="76"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="77"/>
+      <c r="D224" s="77"/>
+      <c r="E224" s="77"/>
+      <c r="F224" s="77"/>
+      <c r="G224" s="77"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="72"/>
-      <c r="B225" s="73"/>
-      <c r="C225" s="73"/>
-      <c r="D225" s="73"/>
-      <c r="E225" s="73"/>
-      <c r="F225" s="73"/>
-      <c r="G225" s="73"/>
+      <c r="A225" s="76"/>
+      <c r="B225" s="77"/>
+      <c r="C225" s="77"/>
+      <c r="D225" s="77"/>
+      <c r="E225" s="77"/>
+      <c r="F225" s="77"/>
+      <c r="G225" s="77"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="72"/>
-      <c r="B226" s="73"/>
-      <c r="C226" s="73"/>
-      <c r="D226" s="73"/>
-      <c r="E226" s="73"/>
-      <c r="F226" s="73"/>
-      <c r="G226" s="73"/>
+      <c r="A226" s="76"/>
+      <c r="B226" s="77"/>
+      <c r="C226" s="77"/>
+      <c r="D226" s="77"/>
+      <c r="E226" s="77"/>
+      <c r="F226" s="77"/>
+      <c r="G226" s="77"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="72"/>
-      <c r="B227" s="73"/>
-      <c r="C227" s="73"/>
-      <c r="D227" s="73"/>
-      <c r="E227" s="73"/>
-      <c r="F227" s="73"/>
-      <c r="G227" s="73"/>
+      <c r="A227" s="76"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="77"/>
+      <c r="D227" s="77"/>
+      <c r="E227" s="77"/>
+      <c r="F227" s="77"/>
+      <c r="G227" s="77"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="72"/>
-      <c r="B228" s="73"/>
-      <c r="C228" s="73"/>
-      <c r="D228" s="73"/>
-      <c r="E228" s="73"/>
-      <c r="F228" s="73"/>
-      <c r="G228" s="73"/>
+      <c r="A228" s="76"/>
+      <c r="B228" s="77"/>
+      <c r="C228" s="77"/>
+      <c r="D228" s="77"/>
+      <c r="E228" s="77"/>
+      <c r="F228" s="77"/>
+      <c r="G228" s="77"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="72"/>
-      <c r="B229" s="73"/>
-      <c r="C229" s="73"/>
-      <c r="D229" s="73"/>
-      <c r="E229" s="73"/>
-      <c r="F229" s="73"/>
-      <c r="G229" s="73"/>
+      <c r="A229" s="76"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="77"/>
+      <c r="D229" s="77"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="77"/>
+      <c r="G229" s="77"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="72"/>
-      <c r="B230" s="73"/>
-      <c r="C230" s="73"/>
-      <c r="D230" s="73"/>
-      <c r="E230" s="73"/>
-      <c r="F230" s="73"/>
-      <c r="G230" s="73"/>
+      <c r="A230" s="76"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="77"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="77"/>
+      <c r="G230" s="77"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="72"/>
-      <c r="B231" s="73"/>
-      <c r="C231" s="73"/>
-      <c r="D231" s="73"/>
-      <c r="E231" s="73"/>
-      <c r="F231" s="73"/>
-      <c r="G231" s="73"/>
+      <c r="A231" s="76"/>
+      <c r="B231" s="77"/>
+      <c r="C231" s="77"/>
+      <c r="D231" s="77"/>
+      <c r="E231" s="77"/>
+      <c r="F231" s="77"/>
+      <c r="G231" s="77"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="72"/>
-      <c r="B232" s="73"/>
-      <c r="C232" s="73"/>
-      <c r="D232" s="73"/>
-      <c r="E232" s="73"/>
-      <c r="F232" s="73"/>
-      <c r="G232" s="73"/>
+      <c r="A232" s="76"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="77"/>
+      <c r="D232" s="77"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="77"/>
+      <c r="G232" s="77"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="72"/>
-      <c r="B233" s="73"/>
-      <c r="C233" s="73"/>
-      <c r="D233" s="73"/>
-      <c r="E233" s="73"/>
-      <c r="F233" s="73"/>
-      <c r="G233" s="73"/>
+      <c r="A233" s="76"/>
+      <c r="B233" s="77"/>
+      <c r="C233" s="77"/>
+      <c r="D233" s="77"/>
+      <c r="E233" s="77"/>
+      <c r="F233" s="77"/>
+      <c r="G233" s="77"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="72"/>
-      <c r="B234" s="73"/>
-      <c r="C234" s="73"/>
-      <c r="D234" s="73"/>
-      <c r="E234" s="73"/>
-      <c r="F234" s="73"/>
-      <c r="G234" s="73"/>
+      <c r="A234" s="76"/>
+      <c r="B234" s="77"/>
+      <c r="C234" s="77"/>
+      <c r="D234" s="77"/>
+      <c r="E234" s="77"/>
+      <c r="F234" s="77"/>
+      <c r="G234" s="77"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="72"/>
-      <c r="B235" s="73"/>
-      <c r="C235" s="73"/>
-      <c r="D235" s="73"/>
-      <c r="E235" s="73"/>
-      <c r="F235" s="73"/>
-      <c r="G235" s="73"/>
+      <c r="A235" s="76"/>
+      <c r="B235" s="77"/>
+      <c r="C235" s="77"/>
+      <c r="D235" s="77"/>
+      <c r="E235" s="77"/>
+      <c r="F235" s="77"/>
+      <c r="G235" s="77"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="72"/>
-      <c r="B236" s="73"/>
-      <c r="C236" s="73"/>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="73"/>
-      <c r="G236" s="73"/>
+      <c r="A236" s="76"/>
+      <c r="B236" s="77"/>
+      <c r="C236" s="77"/>
+      <c r="D236" s="77"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="77"/>
+      <c r="G236" s="77"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="72"/>
-      <c r="B237" s="73"/>
-      <c r="C237" s="73"/>
-      <c r="D237" s="73"/>
-      <c r="E237" s="73"/>
-      <c r="F237" s="73"/>
-      <c r="G237" s="73"/>
+      <c r="A237" s="76"/>
+      <c r="B237" s="77"/>
+      <c r="C237" s="77"/>
+      <c r="D237" s="77"/>
+      <c r="E237" s="77"/>
+      <c r="F237" s="77"/>
+      <c r="G237" s="77"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="72"/>
-      <c r="B238" s="73"/>
-      <c r="C238" s="73"/>
-      <c r="D238" s="73"/>
-      <c r="E238" s="73"/>
-      <c r="F238" s="73"/>
-      <c r="G238" s="73"/>
+      <c r="A238" s="76"/>
+      <c r="B238" s="77"/>
+      <c r="C238" s="77"/>
+      <c r="D238" s="77"/>
+      <c r="E238" s="77"/>
+      <c r="F238" s="77"/>
+      <c r="G238" s="77"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="72"/>
-      <c r="B239" s="73"/>
-      <c r="C239" s="73"/>
-      <c r="D239" s="73"/>
-      <c r="E239" s="73"/>
-      <c r="F239" s="73"/>
-      <c r="G239" s="73"/>
+      <c r="A239" s="76"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="77"/>
+      <c r="G239" s="77"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="72"/>
-      <c r="B240" s="73"/>
-      <c r="C240" s="73"/>
-      <c r="D240" s="73"/>
-      <c r="E240" s="73"/>
-      <c r="F240" s="73"/>
-      <c r="G240" s="73"/>
+      <c r="A240" s="76"/>
+      <c r="B240" s="77"/>
+      <c r="C240" s="77"/>
+      <c r="D240" s="77"/>
+      <c r="E240" s="77"/>
+      <c r="F240" s="77"/>
+      <c r="G240" s="77"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="72"/>
-      <c r="B241" s="73"/>
-      <c r="C241" s="73"/>
-      <c r="D241" s="73"/>
-      <c r="E241" s="73"/>
-      <c r="F241" s="73"/>
-      <c r="G241" s="73"/>
+      <c r="A241" s="76"/>
+      <c r="B241" s="77"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="77"/>
+      <c r="E241" s="77"/>
+      <c r="F241" s="77"/>
+      <c r="G241" s="77"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="72"/>
-      <c r="B242" s="73"/>
-      <c r="C242" s="73"/>
-      <c r="D242" s="73"/>
-      <c r="E242" s="73"/>
-      <c r="F242" s="73"/>
-      <c r="G242" s="73"/>
+      <c r="A242" s="76"/>
+      <c r="B242" s="77"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="77"/>
+      <c r="F242" s="77"/>
+      <c r="G242" s="77"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="72"/>
-      <c r="B243" s="73"/>
-      <c r="C243" s="73"/>
-      <c r="D243" s="73"/>
-      <c r="E243" s="73"/>
-      <c r="F243" s="73"/>
-      <c r="G243" s="73"/>
+      <c r="A243" s="76"/>
+      <c r="B243" s="77"/>
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="77"/>
+      <c r="F243" s="77"/>
+      <c r="G243" s="77"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="72"/>
-      <c r="B244" s="73"/>
-      <c r="C244" s="73"/>
-      <c r="D244" s="73"/>
-      <c r="E244" s="73"/>
-      <c r="F244" s="73"/>
-      <c r="G244" s="73"/>
+      <c r="A244" s="76"/>
+      <c r="B244" s="77"/>
+      <c r="C244" s="77"/>
+      <c r="D244" s="77"/>
+      <c r="E244" s="77"/>
+      <c r="F244" s="77"/>
+      <c r="G244" s="77"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="72"/>
-      <c r="B245" s="73"/>
-      <c r="C245" s="73"/>
-      <c r="D245" s="73"/>
-      <c r="E245" s="73"/>
-      <c r="F245" s="73"/>
-      <c r="G245" s="73"/>
+      <c r="A245" s="76"/>
+      <c r="B245" s="77"/>
+      <c r="C245" s="77"/>
+      <c r="D245" s="77"/>
+      <c r="E245" s="77"/>
+      <c r="F245" s="77"/>
+      <c r="G245" s="77"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="72"/>
-      <c r="B246" s="73"/>
-      <c r="C246" s="73"/>
-      <c r="D246" s="73"/>
-      <c r="E246" s="73"/>
-      <c r="F246" s="73"/>
-      <c r="G246" s="73"/>
+      <c r="A246" s="76"/>
+      <c r="B246" s="77"/>
+      <c r="C246" s="77"/>
+      <c r="D246" s="77"/>
+      <c r="E246" s="77"/>
+      <c r="F246" s="77"/>
+      <c r="G246" s="77"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="72"/>
-      <c r="B247" s="73"/>
-      <c r="C247" s="73"/>
-      <c r="D247" s="73"/>
-      <c r="E247" s="73"/>
-      <c r="F247" s="73"/>
-      <c r="G247" s="73"/>
+      <c r="A247" s="76"/>
+      <c r="B247" s="77"/>
+      <c r="C247" s="77"/>
+      <c r="D247" s="77"/>
+      <c r="E247" s="77"/>
+      <c r="F247" s="77"/>
+      <c r="G247" s="77"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="72"/>
-      <c r="B248" s="73"/>
-      <c r="C248" s="73"/>
-      <c r="D248" s="73"/>
-      <c r="E248" s="73"/>
-      <c r="F248" s="73"/>
-      <c r="G248" s="73"/>
+      <c r="A248" s="76"/>
+      <c r="B248" s="77"/>
+      <c r="C248" s="77"/>
+      <c r="D248" s="77"/>
+      <c r="E248" s="77"/>
+      <c r="F248" s="77"/>
+      <c r="G248" s="77"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="72"/>
-      <c r="B249" s="73"/>
-      <c r="C249" s="73"/>
-      <c r="D249" s="73"/>
-      <c r="E249" s="73"/>
-      <c r="F249" s="73"/>
-      <c r="G249" s="73"/>
+      <c r="A249" s="76"/>
+      <c r="B249" s="77"/>
+      <c r="C249" s="77"/>
+      <c r="D249" s="77"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="77"/>
+      <c r="G249" s="77"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="72"/>
-      <c r="B250" s="73"/>
-      <c r="C250" s="73"/>
-      <c r="D250" s="73"/>
-      <c r="E250" s="73"/>
-      <c r="F250" s="73"/>
-      <c r="G250" s="73"/>
+      <c r="A250" s="76"/>
+      <c r="B250" s="77"/>
+      <c r="C250" s="77"/>
+      <c r="D250" s="77"/>
+      <c r="E250" s="77"/>
+      <c r="F250" s="77"/>
+      <c r="G250" s="77"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="72"/>
-      <c r="B251" s="73"/>
-      <c r="C251" s="73"/>
-      <c r="D251" s="73"/>
-      <c r="E251" s="73"/>
-      <c r="F251" s="73"/>
-      <c r="G251" s="73"/>
+      <c r="A251" s="76"/>
+      <c r="B251" s="77"/>
+      <c r="C251" s="77"/>
+      <c r="D251" s="77"/>
+      <c r="E251" s="77"/>
+      <c r="F251" s="77"/>
+      <c r="G251" s="77"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="72"/>
-      <c r="B252" s="73"/>
-      <c r="C252" s="73"/>
-      <c r="D252" s="73"/>
-      <c r="E252" s="73"/>
-      <c r="F252" s="73"/>
-      <c r="G252" s="73"/>
+      <c r="A252" s="76"/>
+      <c r="B252" s="77"/>
+      <c r="C252" s="77"/>
+      <c r="D252" s="77"/>
+      <c r="E252" s="77"/>
+      <c r="F252" s="77"/>
+      <c r="G252" s="77"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="72"/>
-      <c r="B253" s="73"/>
-      <c r="C253" s="73"/>
-      <c r="D253" s="73"/>
-      <c r="E253" s="73"/>
-      <c r="F253" s="73"/>
-      <c r="G253" s="73"/>
+      <c r="A253" s="76"/>
+      <c r="B253" s="77"/>
+      <c r="C253" s="77"/>
+      <c r="D253" s="77"/>
+      <c r="E253" s="77"/>
+      <c r="F253" s="77"/>
+      <c r="G253" s="77"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="72"/>
-      <c r="B254" s="73"/>
-      <c r="C254" s="73"/>
-      <c r="D254" s="73"/>
-      <c r="E254" s="73"/>
-      <c r="F254" s="73"/>
-      <c r="G254" s="73"/>
+      <c r="A254" s="76"/>
+      <c r="B254" s="77"/>
+      <c r="C254" s="77"/>
+      <c r="D254" s="77"/>
+      <c r="E254" s="77"/>
+      <c r="F254" s="77"/>
+      <c r="G254" s="77"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="72"/>
-      <c r="B255" s="73"/>
-      <c r="C255" s="73"/>
-      <c r="D255" s="73"/>
-      <c r="E255" s="73"/>
-      <c r="F255" s="73"/>
-      <c r="G255" s="73"/>
+      <c r="A255" s="76"/>
+      <c r="B255" s="77"/>
+      <c r="C255" s="77"/>
+      <c r="D255" s="77"/>
+      <c r="E255" s="77"/>
+      <c r="F255" s="77"/>
+      <c r="G255" s="77"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="72"/>
-      <c r="B256" s="73"/>
-      <c r="C256" s="73"/>
-      <c r="D256" s="73"/>
-      <c r="E256" s="73"/>
-      <c r="F256" s="73"/>
-      <c r="G256" s="73"/>
+      <c r="A256" s="76"/>
+      <c r="B256" s="77"/>
+      <c r="C256" s="77"/>
+      <c r="D256" s="77"/>
+      <c r="E256" s="77"/>
+      <c r="F256" s="77"/>
+      <c r="G256" s="77"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="72"/>
-      <c r="B257" s="73"/>
-      <c r="C257" s="73"/>
-      <c r="D257" s="73"/>
-      <c r="E257" s="73"/>
-      <c r="F257" s="73"/>
-      <c r="G257" s="73"/>
+      <c r="A257" s="76"/>
+      <c r="B257" s="77"/>
+      <c r="C257" s="77"/>
+      <c r="D257" s="77"/>
+      <c r="E257" s="77"/>
+      <c r="F257" s="77"/>
+      <c r="G257" s="77"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="72"/>
-      <c r="B258" s="73"/>
-      <c r="C258" s="73"/>
-      <c r="D258" s="73"/>
-      <c r="E258" s="73"/>
-      <c r="F258" s="73"/>
-      <c r="G258" s="73"/>
+      <c r="A258" s="76"/>
+      <c r="B258" s="77"/>
+      <c r="C258" s="77"/>
+      <c r="D258" s="77"/>
+      <c r="E258" s="77"/>
+      <c r="F258" s="77"/>
+      <c r="G258" s="77"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="72"/>
-      <c r="B259" s="73"/>
-      <c r="C259" s="73"/>
-      <c r="D259" s="73"/>
-      <c r="E259" s="73"/>
-      <c r="F259" s="73"/>
-      <c r="G259" s="73"/>
+      <c r="A259" s="76"/>
+      <c r="B259" s="77"/>
+      <c r="C259" s="77"/>
+      <c r="D259" s="77"/>
+      <c r="E259" s="77"/>
+      <c r="F259" s="77"/>
+      <c r="G259" s="77"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="72"/>
-      <c r="B260" s="73"/>
-      <c r="C260" s="73"/>
-      <c r="D260" s="73"/>
-      <c r="E260" s="73"/>
-      <c r="F260" s="73"/>
-      <c r="G260" s="73"/>
+      <c r="A260" s="76"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+      <c r="G260" s="77"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="72"/>
-      <c r="B261" s="73"/>
-      <c r="C261" s="73"/>
-      <c r="D261" s="73"/>
-      <c r="E261" s="73"/>
-      <c r="F261" s="73"/>
-      <c r="G261" s="73"/>
+      <c r="A261" s="76"/>
+      <c r="B261" s="77"/>
+      <c r="C261" s="77"/>
+      <c r="D261" s="77"/>
+      <c r="E261" s="77"/>
+      <c r="F261" s="77"/>
+      <c r="G261" s="77"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="72"/>
-      <c r="B262" s="73"/>
-      <c r="C262" s="73"/>
-      <c r="D262" s="73"/>
-      <c r="E262" s="73"/>
-      <c r="F262" s="73"/>
-      <c r="G262" s="73"/>
+      <c r="A262" s="76"/>
+      <c r="B262" s="77"/>
+      <c r="C262" s="77"/>
+      <c r="D262" s="77"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="77"/>
+      <c r="G262" s="77"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="72"/>
-      <c r="B263" s="73"/>
-      <c r="C263" s="73"/>
-      <c r="D263" s="73"/>
-      <c r="E263" s="73"/>
-      <c r="F263" s="73"/>
-      <c r="G263" s="73"/>
+      <c r="A263" s="76"/>
+      <c r="B263" s="77"/>
+      <c r="C263" s="77"/>
+      <c r="D263" s="77"/>
+      <c r="E263" s="77"/>
+      <c r="F263" s="77"/>
+      <c r="G263" s="77"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="72"/>
-      <c r="B264" s="73"/>
-      <c r="C264" s="73"/>
-      <c r="D264" s="73"/>
-      <c r="E264" s="73"/>
-      <c r="F264" s="73"/>
-      <c r="G264" s="73"/>
+      <c r="A264" s="76"/>
+      <c r="B264" s="77"/>
+      <c r="C264" s="77"/>
+      <c r="D264" s="77"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="77"/>
+      <c r="G264" s="77"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="72"/>
-      <c r="B265" s="73"/>
-      <c r="C265" s="73"/>
-      <c r="D265" s="73"/>
-      <c r="E265" s="73"/>
-      <c r="F265" s="73"/>
-      <c r="G265" s="73"/>
+      <c r="A265" s="76"/>
+      <c r="B265" s="77"/>
+      <c r="C265" s="77"/>
+      <c r="D265" s="77"/>
+      <c r="E265" s="77"/>
+      <c r="F265" s="77"/>
+      <c r="G265" s="77"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="72"/>
-      <c r="B266" s="73"/>
-      <c r="C266" s="73"/>
-      <c r="D266" s="73"/>
-      <c r="E266" s="73"/>
-      <c r="F266" s="73"/>
-      <c r="G266" s="73"/>
+      <c r="A266" s="76"/>
+      <c r="B266" s="77"/>
+      <c r="C266" s="77"/>
+      <c r="D266" s="77"/>
+      <c r="E266" s="77"/>
+      <c r="F266" s="77"/>
+      <c r="G266" s="77"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="72"/>
-      <c r="B267" s="73"/>
-      <c r="C267" s="73"/>
-      <c r="D267" s="73"/>
-      <c r="E267" s="73"/>
-      <c r="F267" s="73"/>
-      <c r="G267" s="73"/>
+      <c r="A267" s="76"/>
+      <c r="B267" s="77"/>
+      <c r="C267" s="77"/>
+      <c r="D267" s="77"/>
+      <c r="E267" s="77"/>
+      <c r="F267" s="77"/>
+      <c r="G267" s="77"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="72"/>
-      <c r="B268" s="73"/>
-      <c r="C268" s="73"/>
-      <c r="D268" s="73"/>
-      <c r="E268" s="73"/>
-      <c r="F268" s="73"/>
-      <c r="G268" s="73"/>
+      <c r="A268" s="76"/>
+      <c r="B268" s="77"/>
+      <c r="C268" s="77"/>
+      <c r="D268" s="77"/>
+      <c r="E268" s="77"/>
+      <c r="F268" s="77"/>
+      <c r="G268" s="77"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="72"/>
-      <c r="B269" s="73"/>
-      <c r="C269" s="73"/>
-      <c r="D269" s="73"/>
-      <c r="E269" s="73"/>
-      <c r="F269" s="73"/>
-      <c r="G269" s="73"/>
+      <c r="A269" s="76"/>
+      <c r="B269" s="77"/>
+      <c r="C269" s="77"/>
+      <c r="D269" s="77"/>
+      <c r="E269" s="77"/>
+      <c r="F269" s="77"/>
+      <c r="G269" s="77"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="72"/>
-      <c r="B270" s="73"/>
-      <c r="C270" s="73"/>
-      <c r="D270" s="73"/>
-      <c r="E270" s="73"/>
-      <c r="F270" s="73"/>
-      <c r="G270" s="73"/>
+      <c r="A270" s="76"/>
+      <c r="B270" s="77"/>
+      <c r="C270" s="77"/>
+      <c r="D270" s="77"/>
+      <c r="E270" s="77"/>
+      <c r="F270" s="77"/>
+      <c r="G270" s="77"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="72"/>
-      <c r="B271" s="73"/>
-      <c r="C271" s="73"/>
-      <c r="D271" s="73"/>
-      <c r="E271" s="73"/>
-      <c r="F271" s="73"/>
-      <c r="G271" s="73"/>
+      <c r="A271" s="76"/>
+      <c r="B271" s="77"/>
+      <c r="C271" s="77"/>
+      <c r="D271" s="77"/>
+      <c r="E271" s="77"/>
+      <c r="F271" s="77"/>
+      <c r="G271" s="77"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="72"/>
-      <c r="B272" s="73"/>
-      <c r="C272" s="73"/>
-      <c r="D272" s="73"/>
-      <c r="E272" s="73"/>
-      <c r="F272" s="73"/>
-      <c r="G272" s="73"/>
+      <c r="A272" s="76"/>
+      <c r="B272" s="77"/>
+      <c r="C272" s="77"/>
+      <c r="D272" s="77"/>
+      <c r="E272" s="77"/>
+      <c r="F272" s="77"/>
+      <c r="G272" s="77"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="72"/>
-      <c r="B273" s="73"/>
-      <c r="C273" s="73"/>
-      <c r="D273" s="73"/>
-      <c r="E273" s="73"/>
-      <c r="F273" s="73"/>
-      <c r="G273" s="73"/>
+      <c r="A273" s="76"/>
+      <c r="B273" s="77"/>
+      <c r="C273" s="77"/>
+      <c r="D273" s="77"/>
+      <c r="E273" s="77"/>
+      <c r="F273" s="77"/>
+      <c r="G273" s="77"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="72"/>
-      <c r="B274" s="73"/>
-      <c r="C274" s="73"/>
-      <c r="D274" s="73"/>
-      <c r="E274" s="73"/>
-      <c r="F274" s="73"/>
-      <c r="G274" s="73"/>
+      <c r="A274" s="76"/>
+      <c r="B274" s="77"/>
+      <c r="C274" s="77"/>
+      <c r="D274" s="77"/>
+      <c r="E274" s="77"/>
+      <c r="F274" s="77"/>
+      <c r="G274" s="77"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="72"/>
-      <c r="B275" s="73"/>
-      <c r="C275" s="73"/>
-      <c r="D275" s="73"/>
-      <c r="E275" s="73"/>
-      <c r="F275" s="73"/>
-      <c r="G275" s="73"/>
+      <c r="A275" s="76"/>
+      <c r="B275" s="77"/>
+      <c r="C275" s="77"/>
+      <c r="D275" s="77"/>
+      <c r="E275" s="77"/>
+      <c r="F275" s="77"/>
+      <c r="G275" s="77"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="72"/>
-      <c r="B276" s="73"/>
-      <c r="C276" s="73"/>
-      <c r="D276" s="73"/>
-      <c r="E276" s="73"/>
-      <c r="F276" s="73"/>
-      <c r="G276" s="73"/>
+      <c r="A276" s="76"/>
+      <c r="B276" s="77"/>
+      <c r="C276" s="77"/>
+      <c r="D276" s="77"/>
+      <c r="E276" s="77"/>
+      <c r="F276" s="77"/>
+      <c r="G276" s="77"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="72"/>
-      <c r="B277" s="73"/>
-      <c r="C277" s="73"/>
-      <c r="D277" s="73"/>
-      <c r="E277" s="73"/>
-      <c r="F277" s="73"/>
-      <c r="G277" s="73"/>
+      <c r="A277" s="76"/>
+      <c r="B277" s="77"/>
+      <c r="C277" s="77"/>
+      <c r="D277" s="77"/>
+      <c r="E277" s="77"/>
+      <c r="F277" s="77"/>
+      <c r="G277" s="77"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="72"/>
-      <c r="B278" s="73"/>
-      <c r="C278" s="73"/>
-      <c r="D278" s="73"/>
-      <c r="E278" s="73"/>
-      <c r="F278" s="73"/>
-      <c r="G278" s="73"/>
+      <c r="A278" s="76"/>
+      <c r="B278" s="77"/>
+      <c r="C278" s="77"/>
+      <c r="D278" s="77"/>
+      <c r="E278" s="77"/>
+      <c r="F278" s="77"/>
+      <c r="G278" s="77"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="72"/>
-      <c r="B279" s="73"/>
-      <c r="C279" s="73"/>
-      <c r="D279" s="73"/>
-      <c r="E279" s="73"/>
-      <c r="F279" s="73"/>
-      <c r="G279" s="73"/>
+      <c r="A279" s="76"/>
+      <c r="B279" s="77"/>
+      <c r="C279" s="77"/>
+      <c r="D279" s="77"/>
+      <c r="E279" s="77"/>
+      <c r="F279" s="77"/>
+      <c r="G279" s="77"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="72"/>
-      <c r="B280" s="73"/>
-      <c r="C280" s="73"/>
-      <c r="D280" s="73"/>
-      <c r="E280" s="73"/>
-      <c r="F280" s="73"/>
-      <c r="G280" s="73"/>
+      <c r="A280" s="76"/>
+      <c r="B280" s="77"/>
+      <c r="C280" s="77"/>
+      <c r="D280" s="77"/>
+      <c r="E280" s="77"/>
+      <c r="F280" s="77"/>
+      <c r="G280" s="77"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="72"/>
-      <c r="B281" s="73"/>
-      <c r="C281" s="73"/>
-      <c r="D281" s="73"/>
-      <c r="E281" s="73"/>
-      <c r="F281" s="73"/>
-      <c r="G281" s="73"/>
+      <c r="A281" s="76"/>
+      <c r="B281" s="77"/>
+      <c r="C281" s="77"/>
+      <c r="D281" s="77"/>
+      <c r="E281" s="77"/>
+      <c r="F281" s="77"/>
+      <c r="G281" s="77"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="72"/>
-      <c r="B282" s="73"/>
-      <c r="C282" s="73"/>
-      <c r="D282" s="73"/>
-      <c r="E282" s="73"/>
-      <c r="F282" s="73"/>
-      <c r="G282" s="73"/>
+      <c r="A282" s="76"/>
+      <c r="B282" s="77"/>
+      <c r="C282" s="77"/>
+      <c r="D282" s="77"/>
+      <c r="E282" s="77"/>
+      <c r="F282" s="77"/>
+      <c r="G282" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="178">
